--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_30.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_30.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sayuri Nakajima</t>
+          <t>Sotaro Tanaka</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
